--- a/data files/Purchase Order/perfecia.xlsx
+++ b/data files/Purchase Order/perfecia.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DEC5D8-D072-4A80-8E58-1CAA8FC8E805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ORDER-FORM" sheetId="2" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Order Form</t>
   </si>
@@ -72,9 +73,6 @@
   </si>
   <si>
     <t>19/12/22</t>
-  </si>
-  <si>
-    <t>NAME M/s. Vertech Health Solutions, Delhi</t>
   </si>
   <si>
     <t>Digital Thermometer</t>
@@ -154,12 +152,18 @@
   <si>
     <t>VHS-0410</t>
   </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M/s. Vertech Health Solutions, Delhi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,7 +319,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -340,7 +344,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -351,7 +354,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -387,6 +390,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,7 +418,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Line 1"/>
+        <xdr:cNvPr id="2" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -448,7 +465,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Line 2"/>
+        <xdr:cNvPr id="3" name="Line 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -489,7 +512,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Line 3"/>
+        <xdr:cNvPr id="4" name="Line 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -519,9 +548,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -559,7 +588,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -593,6 +622,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -627,9 +657,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -802,23 +833,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.8" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="4"/>
-    <col min="5" max="5" width="11.7109375" style="4" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="4"/>
-    <col min="8" max="8" width="14.85546875" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="4" width="9.109375" style="4"/>
+    <col min="5" max="5" width="11.6640625" style="4" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" style="4"/>
+    <col min="8" max="8" width="14.88671875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
@@ -826,13 +857,13 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="30">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.5">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -842,7 +873,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -853,7 +884,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" ht="15">
+    <row r="5" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -861,7 +892,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
@@ -870,231 +901,232 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="G8" s="12"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="12" customFormat="1" ht="15.75">
+    <row r="10" spans="1:8" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
       <c r="G10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="12" customFormat="1" ht="15.75">
-      <c r="B11" s="32" t="s">
+    <row r="11" spans="1:8" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
+        <v>1</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="F14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="25">
+        <v>50</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="21">
+        <v>2</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25">
+        <v>50</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="21">
+        <v>3</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="25">
+        <v>2</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
+        <v>4</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="25">
+        <v>40</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="21">
+        <v>5</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="25">
+        <v>4</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="21">
+        <v>6</v>
+      </c>
+      <c r="B19" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" s="12" customFormat="1" ht="15">
-      <c r="A12" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="18" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="25">
+        <v>10</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="21">
         <v>7</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="12" customFormat="1" ht="15.75">
-      <c r="B13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" s="12" customFormat="1" ht="15.75">
-      <c r="A14" s="22">
-        <v>1</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="F14" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="26">
-        <v>50</v>
-      </c>
-      <c r="H14" s="25" t="s">
+      <c r="B20" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="25">
+        <v>2</v>
+      </c>
+      <c r="H20" s="24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="12" customFormat="1" ht="15.75">
-      <c r="A15" s="22">
-        <v>2</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26">
-        <v>50</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="12" customFormat="1" ht="15.75">
-      <c r="A16" s="22">
-        <v>3</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="26">
-        <v>2</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="12" customFormat="1" ht="15.75">
-      <c r="A17" s="22">
-        <v>4</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="26">
-        <v>40</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="12" customFormat="1" ht="15.75">
-      <c r="A18" s="22">
-        <v>5</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="26">
-        <v>4</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="12" customFormat="1" ht="15.75">
-      <c r="A19" s="22">
-        <v>6</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="26">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75">
-      <c r="A20" s="22">
-        <v>7</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="26">
-        <v>2</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="25"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75">
-      <c r="A22" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H27" s="4" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
